--- a/App_store_copy.xlsx
+++ b/App_store_copy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>App name</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Easy to set up, easy to use</t>
   </si>
   <si>
-    <t>Designed for simplicity and ease-of-use. Everything runs inside your Shopify dashboard so you and your partners can easily use Mothership</t>
-  </si>
-  <si>
     <t>Detailed Description1</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>https://www.mothership.fm/?utm_source=App%20Store</t>
   </si>
   <si>
-    <t>Sell your inventory through any of the 500,000+ merchants on Shopify with Mothership</t>
-  </si>
-  <si>
     <t>Retailer Copy</t>
   </si>
   <si>
@@ -113,10 +107,6 @@
     <t>Connect and drop ship with any of Shopify's 500,000+ stores</t>
   </si>
   <si>
-    <t>For companies looking to streamline and grow their existing Shopify drop ship sales, Mothership offers a uniquely powerful suite of features to manage and build a private drop shipping network.
-We have flexible pricing options for every level of drop shipping activity. And because we understand the importance of customer service, we always provide the same high level of onboarding and product support for you and all your network partners- regardless of what plan your business is on.</t>
-  </si>
-  <si>
     <t>Price (Current)</t>
   </si>
   <si>
@@ -126,13 +116,7 @@
     <t>We have flexible pricing options for every level of drop shipping activity and always provide the same high level of onboarding and product support, regardless of what plan you're on</t>
   </si>
   <si>
-    <t>Short description (current)</t>
-  </si>
-  <si>
     <t>Demo URL</t>
-  </si>
-  <si>
-    <t>https://calendly.com/mothership/appstoredemo</t>
   </si>
   <si>
     <t># Mothership helps you drive growth in your drop ship channel!
@@ -151,15 +135,6 @@
     <t>Plan 3</t>
   </si>
   <si>
-    <t>1 Connection / 99 / Supplier and retailer portals, Connect to any 1 Shopify store, 24/7 Product support</t>
-  </si>
-  <si>
-    <t>2-5 Connections / 499 / Supplier and retailer portals, Connect to any 2-5 Shopify stores, 24/7 Product support</t>
-  </si>
-  <si>
-    <t>6-10 Connections / 999 / Supplier and retailer portals, Connect to any Shopify stores, 24/7 Product support, ACH network integration, Contact us for 11+ connections*</t>
-  </si>
-  <si>
     <t>Leverage the power of Shopify's 500,000+ stores with Mothership. Connect and sell products from any store in a private drop shipping network</t>
   </si>
   <si>
@@ -170,46 +145,85 @@
 * Easy to set up, easy to use: Mothership runs inside your Shopify dashboard and was designed for simplicity and ease-of-use so anyone can use it with minimal training (which we provide, of course)</t>
   </si>
   <si>
-    <t># Focus on growing your Shopify drop ship operations, not managing them
-Mothership lets you focus on the things that matter in your business by automating your drop ship operations and giving you the power to sell your inventory at any of the 500,000+ stores on Shopify's platform</t>
-  </si>
-  <si>
-    <t># Focus on growing your Shopify drop ship operations, not managing them
-Mothership lets you focus on the things that matter in your business by automating your drop ship operations and giving you the power to sell inventory from any of the 500,000+ stores on Shopify's platform</t>
+    <t>Integrations</t>
+  </si>
+  <si>
+    <t>Mothership- Supplier Portal, Zero Out, Shopify POS</t>
+  </si>
+  <si>
+    <t>Mothership- Retailer Portal, Zero Out, Shopify POS</t>
+  </si>
+  <si>
+    <t>1 Connection / 99 / Supplier or Retailer Portal, Connect to any 1 Shopify store, 24/7 Product support</t>
+  </si>
+  <si>
+    <t>2-5 Connections / 499 / Supplier and Retailer Portals, Connect to any 2-5 Shopify stores, 24/7 Product support</t>
+  </si>
+  <si>
+    <t>6-10 Connections / 999 / Supplier and Retailer Portals, Connect to any Shopify stores, 24/7 Product support, ACH network integration, Contact us for 11+ connections*</t>
+  </si>
+  <si>
+    <t>Short description (Current)</t>
   </si>
   <si>
     <t># What does Mothership do?
-Mothership lets Shopify stores connect together to form private drop shipping networks. Stores on the network can act as suppliers or retailers: Suppliers offer their inventory to retailers and fulfill orders, and retailers sell items from suppliers through their stores. This simple relationship lies at the heart of Mothership, and coupled with a suite of automation functions gives you the unparalleled reach and efficiency to grow your drop ship channel sales- all in a cheap to deploy and simple to use app. Pretty cool, huh?</t>
+Mothership lets Shopify stores connect together to form private drop shipping networks. Stores on the network can act as suppliers or retailers: Suppliers offer their inventory to retailers and fulfill orders, and retailers sell items from suppliers through their stores. &lt;p&gt;This simple relationship lies at the heart of Mothership, and coupled with a suite of automation functions gives you the unparalleled reach and efficiency to grow your drop ship channel sales- all in a cheap to deploy and simple to use app. Pretty cool, huh?</t>
   </si>
   <si>
     <t xml:space="preserve"># How can my business use Mothership?
 Suppliers -&gt; Mothership -&gt; Retailers -&gt; Customers
 Suppliers: Sell your inventory throughout your private drop shipping network. Connect to retailers through Mothership and publish catalogs of products they can add to their stores. Any updates you make to your inventory, like changing an item description or adding a new image,  are applied by Mothership throughout your network, so every one always stays up to date and happy
 Retailers: Pick which products you will add to your store from suppliers and set your markup.  Regardless of which supplier a product comes from (or which retailer it is sold through), Mothership always routes it to the right supplier for fulfillment
-Customers: Ahh, the lifeblood of every business. Mothership's private drop shipping networks help Shopify stores solve the crucial problem of being able to offer them what they want, where they want it! When you've got that, you've got growth! Simple, right? </t>
+Customers: Ahh, the lifeblood of every business. Mothership's private drop shipping networks help Shopify stores solve the crucial problem of being able to offer them what they want, where they want it. When you've got that, you've got growth! Simple, right? </t>
   </si>
   <si>
     <t xml:space="preserve"># How can my business use Mothership?
 Suppliers -&gt; Mothership -&gt; Retailers -&gt; Customers
 Suppliers: Sell your inventory throughout your private drop shipping network. Connect to retailers through Mothership and publish catalogs of products they can add to their stores. Any updates you make to your inventory, like changing an item description or adding a new image,  are applied by Mothership throughout your network, so every one always stays up to date and happy
 Retailers: Pick which products you will add to your store from suppliers and set your markup.  Regardless of which supplier a product comes from (or which retailer it is sold through), Mothership always routes it to the right supplier for fulfillment  
-Customers: Ahh, the lifeblood of every business. Mothership's private drop shipping networks help Shopify stores solve the crucial problem of being able to offer them what they want, where they want it! When you've got that, you've got growth! Simple, right? </t>
-  </si>
-  <si>
-    <t>Integrations</t>
-  </si>
-  <si>
-    <t>Mothership- Supplier Portal, Zero Out, Shopify POS</t>
-  </si>
-  <si>
-    <t>Mothership- Retailer Portal, Zero Out, Shopify POS</t>
+Customers: Ahh, the lifeblood of every business. Mothership's private drop shipping networks help Shopify stores solve the crucial problem of being able to offer them what they want, where they want it. When you've got that, you've got growth! Simple, right? </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;For companies looking to streamline and grow their existing Shopify drop ship sales, Mothership offers a uniquely powerful suite of features to manage and build a private drop shipping network&lt;/p&gt;&lt;p&gt;We have flexible pricing options for every level of drop shipping activity. And because we understand the importance of customer service, we always provide the same high level of onboarding and product support for you and all your network partners- regardless of what plan your business is on&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Detailed Description5</t>
+  </si>
+  <si>
+    <t>Drop ship your inventory through any of the 500,000+ stores on Shopify with Mothership</t>
+  </si>
+  <si>
+    <t>Drop ship inventory from any of the 500,000+ stores on Shopify with Mothership</t>
+  </si>
+  <si>
+    <t># Focus on growing your Shopify drop ship operations, not managing them Mothership lets you focus on the things that matter in your business by automating your drop ship operations and giving you the power to drop ship your inventory through any of Shopify's 500,000+ stores</t>
+  </si>
+  <si>
+    <t># Focus on growing your Shopify drop ship operations, not managing them Mothership lets you focus on the things that matter in your business by automating your drop ship operations and giving you the power to drop ship inventory from any of Shopify's 500,000+ stores</t>
+  </si>
+  <si>
+    <t>#Schedule a demo with us today!
+We can show you how Mothership works, talk about your particular application, and answer any questions you have:
+https://www.mothership.fm/?utm_source=App%20Store</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Designed for simplicity and ease-of-use. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Mothership runs inside your Shopify dashboard so its reliable and easy for every one to use</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,19 +245,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -296,47 +315,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -359,6 +359,76 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -376,6 +446,12 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -391,22 +467,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -423,36 +489,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,16 +511,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:E23"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Section" dataDxfId="4"/>
-    <tableColumn id="2" name="supplier copy" dataDxfId="3"/>
-    <tableColumn id="3" name="ch" dataDxfId="2">
+    <tableColumn id="1" name="Section" dataDxfId="6"/>
+    <tableColumn id="2" name="supplier copy" dataDxfId="5"/>
+    <tableColumn id="3" name="ch" dataDxfId="4">
       <calculatedColumnFormula>LEN(Table1[[#This Row],[supplier copy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Retailer Copy" dataDxfId="0"/>
-    <tableColumn id="5" name="ch_" dataDxfId="1">
+    <tableColumn id="4" name="Retailer Copy" dataDxfId="3"/>
+    <tableColumn id="5" name="ch_" dataDxfId="2">
       <calculatedColumnFormula>LEN(Table1[[#This Row],[Retailer Copy]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -782,466 +825,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="49.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="49.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="3">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="E2" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="3">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="80">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>134</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="80">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>139</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
         <f>LEN(Table1[[#This Row],[supplier copy]])</f>
         <v>27</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
         <v>27</v>
       </c>
-      <c r="E2" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>59</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>84</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>28</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>134</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+    </row>
+    <row r="10" spans="1:5" ht="80">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>132</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="144">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>274</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="288">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>560</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.6">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>139</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>27</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>137</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>280</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="5">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>557</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="336" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <f>LEN(B13)</f>
         <v>975</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.6">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>858</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="112">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>194</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
         <v>49</v>
       </c>
-      <c r="E13" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>977</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="304" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="D16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="96">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>182</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="5">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="256">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>498</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="5">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>858</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="B20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>49</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="64">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>101</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="64">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="9">
+        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
+        <v>110</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="80">
+      <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>44</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>50</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="3">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>182</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="3">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="160" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>487</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="3">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>49</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>103</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4">
-        <f>LEN(Table1[[#This Row],[supplier copy]])</f>
-        <v>110</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="5">
         <f>LEN(Table1[[#This Row],[supplier copy]])</f>
         <v>165</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="2">
-        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="14"/>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="3">
+        <f>LEN(Table1[[#This Row],[Retailer Copy]])</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
-    <hyperlink ref="D19" r:id="rId2"/>
+    <hyperlink ref="B20" r:id="rId1"/>
+    <hyperlink ref="D20" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="D16" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>